--- a/inst/extdata/example_96_well.xlsx
+++ b/inst/extdata/example_96_well.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamdutta/Documents/plateTransformR/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7187EEFB-3F9C-E047-8035-73F5DA59A1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4DC956-F8F9-8C43-8B11-6EC97EA76F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{A7776946-B09F-F34B-8691-3D1347F1B8EC}"/>
+    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{A7776946-B09F-F34B-8691-3D1347F1B8EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E5A3A7-3537-7F47-9430-EEEEDA7E0FFA}">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:M69"/>
     </sheetView>
   </sheetViews>
@@ -5614,7 +5614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5AA3F2-E0C5-0D47-B00D-0BB3BACC93AF}">
   <dimension ref="D9:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9:P77"/>
     </sheetView>
   </sheetViews>
